--- a/Testing/irradiance.xlsx
+++ b/Testing/irradiance.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30119122-92E7-4214-828B-18E0F19287EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D3D9B-9B5D-493E-B56B-532293BB844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D34289F2-A526-4A09-83F9-2880FCCCB586}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{D34289F2-A526-4A09-83F9-2880FCCCB586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>WHITE</t>
   </si>
@@ -61,6 +63,54 @@
   <si>
     <t>RED</t>
   </si>
+  <si>
+    <t>integration time conversion</t>
+  </si>
+  <si>
+    <t>gain conversion (AS)</t>
+  </si>
+  <si>
+    <t>irradiance cal</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>Wavelength</t>
+  </si>
+  <si>
+    <t>mcd</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>620-625</t>
+  </si>
+  <si>
+    <t>522-525</t>
+  </si>
+  <si>
+    <t>465-467</t>
+  </si>
+  <si>
+    <t>390-420</t>
+  </si>
+  <si>
+    <t>660-720</t>
+  </si>
+  <si>
+    <t>180-200</t>
+  </si>
+  <si>
+    <t>8.44-9.08</t>
+  </si>
+  <si>
+    <t>14.28-15.58</t>
+  </si>
+  <si>
+    <t>3.89-4.33</t>
+  </si>
 </sst>
 </file>
 
@@ -75,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -85,6 +135,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -101,9 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7B6F5FF-B88B-4CFF-90B0-C15008FFBEFF}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:O27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,39 +1517,39 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>A33/A25</f>
+        <f t="shared" ref="A34:I34" si="47">A33/A25</f>
         <v>4.8367382812499997</v>
       </c>
       <c r="B34">
-        <f>B33/B25</f>
+        <f t="shared" si="47"/>
         <v>1.0971807065217392</v>
       </c>
       <c r="C34">
-        <f>C33/C25</f>
+        <f t="shared" si="47"/>
         <v>1.3832604166666667</v>
       </c>
       <c r="D34">
-        <f>D33/D25</f>
+        <f t="shared" si="47"/>
         <v>1.1898315217391304</v>
       </c>
       <c r="E34">
-        <f>E33/E25</f>
+        <f t="shared" si="47"/>
         <v>0.31844363839285716</v>
       </c>
       <c r="F34">
-        <f>F33/F25</f>
+        <f t="shared" si="47"/>
         <v>7.9773681818181821</v>
       </c>
       <c r="G34">
-        <f>G33/G25</f>
+        <f t="shared" si="47"/>
         <v>15.109794331395349</v>
       </c>
       <c r="H34">
-        <f>H33/H25</f>
+        <f t="shared" si="47"/>
         <v>0.25857655360531312</v>
       </c>
       <c r="I34">
-        <f>I33/I25</f>
+        <f t="shared" si="47"/>
         <v>6.8050306952662716</v>
       </c>
       <c r="L34" t="s">
@@ -1519,4 +1591,1078 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3892725B-05D6-4123-A6B9-5420049D0B85}">
+  <dimension ref="A1:Q39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>658</v>
+      </c>
+      <c r="B1" s="2">
+        <v>270</v>
+      </c>
+      <c r="C1" s="2">
+        <v>12215</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43824</v>
+      </c>
+      <c r="E1" s="2">
+        <v>7764</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1051</v>
+      </c>
+      <c r="G1" s="2">
+        <v>983</v>
+      </c>
+      <c r="H1" s="2">
+        <v>916</v>
+      </c>
+      <c r="I1" s="4">
+        <v>33408</v>
+      </c>
+      <c r="J1" s="2">
+        <v>893</v>
+      </c>
+      <c r="K1">
+        <v>9951</v>
+      </c>
+      <c r="L1">
+        <v>31453</v>
+      </c>
+      <c r="M1">
+        <v>12272</v>
+      </c>
+      <c r="N1">
+        <v>28861</v>
+      </c>
+      <c r="O1">
+        <v>640</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <f>A1/640*27.8</f>
+        <v>28.581875</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2:H2" si="0">B1/640*27.8</f>
+        <v>11.728125</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" si="0"/>
+        <v>530.58906250000007</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>1903.6049999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" si="0"/>
+        <v>337.24874999999997</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" si="0"/>
+        <v>45.652812499999996</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" si="0"/>
+        <v>42.699062499999997</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" si="0"/>
+        <v>39.78875</v>
+      </c>
+      <c r="I2" s="4">
+        <f>I1/640*27.8</f>
+        <v>1451.16</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="1">J1/640*27.8</f>
+        <v>38.789687499999999</v>
+      </c>
+      <c r="K2" s="3">
+        <f>K1/640*160</f>
+        <v>2487.75</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" ref="L2:N2" si="2">L1/640*160</f>
+        <v>7863.25</v>
+      </c>
+      <c r="M2" s="3">
+        <f t="shared" si="2"/>
+        <v>3068</v>
+      </c>
+      <c r="N2" s="3">
+        <f t="shared" si="2"/>
+        <v>7215.25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>A2/32</f>
+        <v>0.89318359375</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:J3" si="3">B2/32</f>
+        <v>0.36650390625000001</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" si="3"/>
+        <v>16.580908203125002</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="3"/>
+        <v>59.487656249999993</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="3"/>
+        <v>10.539023437499999</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4266503906249999</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.3343457031249999</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2433984375</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" si="3"/>
+        <v>45.348750000000003</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="3"/>
+        <v>1.212177734375</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f>A3/0.00696572861521315</f>
+        <v>128.22543671875002</v>
+      </c>
+      <c r="B4" s="2">
+        <f>B3/0.0133509798458252</f>
+        <v>27.451461277173927</v>
+      </c>
+      <c r="C4" s="2">
+        <f>C3/0.0261214823070493</f>
+        <v>634.76138177083385</v>
+      </c>
+      <c r="D4" s="2">
+        <f>D3/0.0500661744218445</f>
+        <v>1188.180581739131</v>
+      </c>
+      <c r="E4" s="2">
+        <f>E3/0.0812668338441534</f>
+        <v>129.68418897321433</v>
+      </c>
+      <c r="F4" s="2">
+        <f>F3/0.119723460573976</f>
+        <v>11.916214113636366</v>
+      </c>
+      <c r="G4" s="2">
+        <f>G3/0.187203956533853</f>
+        <v>7.1277644331395518</v>
+      </c>
+      <c r="H4" s="2">
+        <f>H3/0.152955790842389</f>
+        <v>8.1291360768500827</v>
+      </c>
+      <c r="I4" s="5">
+        <f>I3/0.245251694993963</f>
+        <v>184.90697893491128</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="3">
+        <f>K2/96</f>
+        <v>25.9140625</v>
+      </c>
+      <c r="L4" s="3">
+        <f>L2/74</f>
+        <v>106.26013513513513</v>
+      </c>
+      <c r="M4">
+        <f>M2/56</f>
+        <v>54.785714285714285</v>
+      </c>
+      <c r="N4">
+        <f>N2*0.01573</f>
+        <v>113.49588250000001</v>
+      </c>
+      <c r="O4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f>SUM(A4:H4)</f>
+        <v>2135.4761651027288</v>
+      </c>
+      <c r="I5">
+        <f>I4*10^(-6)</f>
+        <v>1.8490697893491128E-4</v>
+      </c>
+      <c r="M5" s="5">
+        <f>SUM(K4:M4)</f>
+        <v>186.95991192084941</v>
+      </c>
+      <c r="N5" s="5">
+        <f>N4*1.464</f>
+        <v>166.15797198000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f>L2*0.01573</f>
+        <v>123.6889225</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="5">
+        <f>L8*1.464</f>
+        <v>181.08058253999999</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1090</v>
+      </c>
+      <c r="B11">
+        <v>36856</v>
+      </c>
+      <c r="C11">
+        <v>34743</v>
+      </c>
+      <c r="D11">
+        <v>2178</v>
+      </c>
+      <c r="E11">
+        <v>1097</v>
+      </c>
+      <c r="F11">
+        <v>925</v>
+      </c>
+      <c r="G11">
+        <v>1703</v>
+      </c>
+      <c r="H11">
+        <v>2540</v>
+      </c>
+      <c r="I11">
+        <v>45969</v>
+      </c>
+      <c r="J11">
+        <v>387</v>
+      </c>
+      <c r="K11">
+        <v>6869</v>
+      </c>
+      <c r="L11">
+        <v>10445</v>
+      </c>
+      <c r="M11">
+        <v>42605</v>
+      </c>
+      <c r="N11">
+        <v>31960</v>
+      </c>
+      <c r="O11">
+        <v>640</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>A11/640*27.8</f>
+        <v>47.346875000000004</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12" si="4">B11/640*27.8</f>
+        <v>1600.9324999999999</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" ref="C12" si="5">C11/640*27.8</f>
+        <v>1509.1490625000001</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12" si="6">D11/640*27.8</f>
+        <v>94.606875000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12" si="7">E11/640*27.8</f>
+        <v>47.650937500000005</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12" si="8">F11/640*27.8</f>
+        <v>40.1796875</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12" si="9">G11/640*27.8</f>
+        <v>73.974062500000002</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" ref="H12" si="10">H11/640*27.8</f>
+        <v>110.33125</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I11/640*27.8</f>
+        <v>1996.7784374999999</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12" si="11">J11/640*27.8</f>
+        <v>16.810312500000002</v>
+      </c>
+      <c r="K12" s="3">
+        <f>K11/640*160</f>
+        <v>1717.25</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" ref="L12" si="12">L11/640*160</f>
+        <v>2611.25</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12" si="13">M11/640*160</f>
+        <v>10651.25</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" ref="N12" si="14">N11/640*160</f>
+        <v>7990</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f>A12/32</f>
+        <v>1.4795898437500001</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13" si="15">B12/32</f>
+        <v>50.029140624999997</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13" si="16">C12/32</f>
+        <v>47.160908203125004</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" ref="D13" si="17">D12/32</f>
+        <v>2.9564648437500001</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13" si="18">E12/32</f>
+        <v>1.4890917968750002</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" ref="F13" si="19">F12/32</f>
+        <v>1.255615234375</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13" si="20">G12/32</f>
+        <v>2.3116894531250001</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" ref="H13" si="21">H12/32</f>
+        <v>3.4478515624999999</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" ref="I13" si="22">I12/32</f>
+        <v>62.399326171874996</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13" si="23">J12/32</f>
+        <v>0.52532226562500006</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>A13/0.00696572861521315</f>
+        <v>212.40991796875005</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B13/0.0133509798458252</f>
+        <v>3747.226136413045</v>
+      </c>
+      <c r="C14" s="2">
+        <f>C13/0.0261214823070493</f>
+        <v>1805.4453284375013</v>
+      </c>
+      <c r="D14" s="2">
+        <f>D13/0.0500661744218445</f>
+        <v>59.051143369565246</v>
+      </c>
+      <c r="E14" s="2">
+        <f>E13/0.0812668338441534</f>
+        <v>18.323487287946438</v>
+      </c>
+      <c r="F14" s="2">
+        <f>F13/0.119723460573976</f>
+        <v>10.487628977272731</v>
+      </c>
+      <c r="G14" s="2">
+        <f>G13/0.187203956533853</f>
+        <v>12.348507456395378</v>
+      </c>
+      <c r="H14" s="2">
+        <f>H13/0.152955790842389</f>
+        <v>22.541490868121411</v>
+      </c>
+      <c r="I14" s="5">
+        <f>I13/0.245251694993963</f>
+        <v>254.42974481139058</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="3">
+        <f>K12/96</f>
+        <v>17.888020833333332</v>
+      </c>
+      <c r="L14" s="3">
+        <f>L12/74</f>
+        <v>35.287162162162161</v>
+      </c>
+      <c r="M14">
+        <f>M12/56</f>
+        <v>190.20089285714286</v>
+      </c>
+      <c r="N14">
+        <f>N12*0.01573</f>
+        <v>125.68270000000001</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>SUM(A14:H14)</f>
+        <v>5887.8336407785982</v>
+      </c>
+      <c r="M15" s="5">
+        <f>SUM(K14:M14)</f>
+        <v>243.37607585263834</v>
+      </c>
+      <c r="N15" s="5">
+        <f>N14*1.464</f>
+        <v>183.99947280000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>L12*0.01573</f>
+        <v>41.074962500000005</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="5">
+        <f>L18*1.464</f>
+        <v>60.133745100000006</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>641</v>
+      </c>
+      <c r="B21">
+        <v>297</v>
+      </c>
+      <c r="C21">
+        <v>691</v>
+      </c>
+      <c r="D21">
+        <v>1163</v>
+      </c>
+      <c r="E21">
+        <v>514</v>
+      </c>
+      <c r="F21">
+        <v>17286</v>
+      </c>
+      <c r="G21">
+        <v>55490</v>
+      </c>
+      <c r="H21">
+        <v>823</v>
+      </c>
+      <c r="I21">
+        <v>32242</v>
+      </c>
+      <c r="J21">
+        <v>3944</v>
+      </c>
+      <c r="K21">
+        <v>28195</v>
+      </c>
+      <c r="L21">
+        <v>8585</v>
+      </c>
+      <c r="M21">
+        <v>3481</v>
+      </c>
+      <c r="N21">
+        <v>27005</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f>A21/640*27.8</f>
+        <v>27.843437499999997</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" ref="B22" si="24">B21/640*27.8</f>
+        <v>12.9009375</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" ref="C22" si="25">C21/640*27.8</f>
+        <v>30.015312499999997</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22" si="26">D21/640*27.8</f>
+        <v>50.517812499999998</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22" si="27">E21/640*27.8</f>
+        <v>22.326875000000001</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22" si="28">F21/640*27.8</f>
+        <v>750.86062500000003</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" ref="G22" si="29">G21/640*27.8</f>
+        <v>2410.3468750000002</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" ref="H22" si="30">H21/640*27.8</f>
+        <v>35.749062500000001</v>
+      </c>
+      <c r="I22" s="4">
+        <f>I21/640*27.8</f>
+        <v>1400.5118749999999</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" ref="J22" si="31">J21/640*27.8</f>
+        <v>171.3175</v>
+      </c>
+      <c r="K22" s="3">
+        <f>K21/640*160</f>
+        <v>7048.75</v>
+      </c>
+      <c r="L22" s="3">
+        <f t="shared" ref="L22" si="32">L21/640*160</f>
+        <v>2146.25</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22" si="33">M21/640*160</f>
+        <v>870.25</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22" si="34">N21/640*160</f>
+        <v>6751.25</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>A22/32</f>
+        <v>0.8701074218749999</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ref="B23" si="35">B22/32</f>
+        <v>0.40315429687499998</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23" si="36">C22/32</f>
+        <v>0.9379785156249999</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" ref="D23" si="37">D22/32</f>
+        <v>1.5786816406249999</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23" si="38">E22/32</f>
+        <v>0.69771484375000004</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23" si="39">F22/32</f>
+        <v>23.464394531250001</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" ref="G23" si="40">G22/32</f>
+        <v>75.323339843750006</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" ref="H23" si="41">H22/32</f>
+        <v>1.117158203125</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" ref="I23" si="42">I22/32</f>
+        <v>43.765996093749997</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" ref="J23" si="43">J22/32</f>
+        <v>5.3536718749999999</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>A23/0.00696572861521315</f>
+        <v>124.91262148437499</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B23/0.0133509798458252</f>
+        <v>30.196607404891317</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C23/0.0261214823070493</f>
+        <v>35.908318854166687</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D23/0.0500661744218445</f>
+        <v>31.531900706521753</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E23/0.0812668338441534</f>
+        <v>8.5854808258928621</v>
+      </c>
+      <c r="F24" s="2">
+        <f>F23/0.119723460573976</f>
+        <v>195.98827513636371</v>
+      </c>
+      <c r="G24" s="2">
+        <f>G23/0.187203956533853</f>
+        <v>402.35976438953588</v>
+      </c>
+      <c r="H24" s="2">
+        <f>H23/0.152955790842389</f>
+        <v>7.3037980253794963</v>
+      </c>
+      <c r="I24" s="5">
+        <f>I23/0.245251694993963</f>
+        <v>178.45338885355031</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3">
+        <f>K22/96</f>
+        <v>73.424479166666671</v>
+      </c>
+      <c r="L24" s="3">
+        <f>L22/74</f>
+        <v>29.003378378378379</v>
+      </c>
+      <c r="M24">
+        <f>M22/56</f>
+        <v>15.540178571428571</v>
+      </c>
+      <c r="N24">
+        <f>N22*0.01573</f>
+        <v>106.1971625</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>SUM(A24:H24)</f>
+        <v>836.7867668271266</v>
+      </c>
+      <c r="M25" s="5">
+        <f>SUM(K24:M24)</f>
+        <v>117.96803611647361</v>
+      </c>
+      <c r="N25" s="5">
+        <f>N24*1.464</f>
+        <v>155.4726459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f>L22*0.01573</f>
+        <v>33.760512500000004</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="5">
+        <f>L28*1.464</f>
+        <v>49.425390300000004</v>
+      </c>
+      <c r="N29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1898</v>
+      </c>
+      <c r="B31">
+        <v>28461</v>
+      </c>
+      <c r="C31">
+        <v>39812</v>
+      </c>
+      <c r="D31">
+        <v>39291</v>
+      </c>
+      <c r="E31">
+        <v>8263</v>
+      </c>
+      <c r="F31">
+        <v>13823</v>
+      </c>
+      <c r="G31">
+        <v>44754</v>
+      </c>
+      <c r="H31">
+        <v>3482</v>
+      </c>
+      <c r="I31">
+        <v>65535</v>
+      </c>
+      <c r="J31">
+        <v>4267</v>
+      </c>
+      <c r="K31">
+        <v>35071</v>
+      </c>
+      <c r="L31">
+        <v>40544</v>
+      </c>
+      <c r="M31">
+        <v>46180</v>
+      </c>
+      <c r="N31">
+        <v>65535</v>
+      </c>
+      <c r="O31">
+        <v>640</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f>A31/640*27.8</f>
+        <v>82.444375000000008</v>
+      </c>
+      <c r="B32" s="2">
+        <f t="shared" ref="B32" si="44">B31/640*27.8</f>
+        <v>1236.2746875</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32" si="45">C31/640*27.8</f>
+        <v>1729.33375</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32" si="46">D31/640*27.8</f>
+        <v>1706.7028124999999</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32" si="47">E31/640*27.8</f>
+        <v>358.92406249999999</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" ref="F32" si="48">F31/640*27.8</f>
+        <v>600.43656250000004</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32" si="49">G31/640*27.8</f>
+        <v>1944.0018749999999</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32" si="50">H31/640*27.8</f>
+        <v>151.24937499999999</v>
+      </c>
+      <c r="I32" s="4">
+        <f>I31/640*27.8</f>
+        <v>2846.6765625000003</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" ref="J32" si="51">J31/640*27.8</f>
+        <v>185.3478125</v>
+      </c>
+      <c r="K32" s="3">
+        <f>K31/640*160</f>
+        <v>8767.75</v>
+      </c>
+      <c r="L32" s="3">
+        <f t="shared" ref="L32" si="52">L31/640*160</f>
+        <v>10136</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" ref="M32" si="53">M31/640*160</f>
+        <v>11545</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" ref="N32" si="54">N31/640*160</f>
+        <v>16383.75</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f>A32/32</f>
+        <v>2.5763867187500002</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33" si="55">B32/32</f>
+        <v>38.633583984375001</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33" si="56">C32/32</f>
+        <v>54.0416796875</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33" si="57">D32/32</f>
+        <v>53.334462890624998</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" ref="E33" si="58">E32/32</f>
+        <v>11.216376953125</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33" si="59">F32/32</f>
+        <v>18.763642578125001</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" ref="G33" si="60">G32/32</f>
+        <v>60.750058593749998</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" ref="H33" si="61">H32/32</f>
+        <v>4.7265429687499996</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" ref="I33" si="62">I32/32</f>
+        <v>88.958642578125009</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" ref="J33" si="63">J32/32</f>
+        <v>5.7921191406250001</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f>A33/0.00696572861521315</f>
+        <v>369.86607734375008</v>
+      </c>
+      <c r="B34" s="2">
+        <f>B33/0.0133509798458252</f>
+        <v>2893.6890348505449</v>
+      </c>
+      <c r="C34" s="2">
+        <f>C33/0.0261214823070493</f>
+        <v>2068.8596095833345</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D33/0.0500661744218445</f>
+        <v>1065.2793728804352</v>
+      </c>
+      <c r="E34" s="2">
+        <f>E33/0.0812668338441534</f>
+        <v>138.01912074776791</v>
+      </c>
+      <c r="F34" s="2">
+        <f>F33/0.119723460573976</f>
+        <v>156.72485984090915</v>
+      </c>
+      <c r="G34" s="2">
+        <f>G33/0.187203956533853</f>
+        <v>324.51268508721006</v>
+      </c>
+      <c r="H34" s="2">
+        <f>H33/0.152955790842389</f>
+        <v>30.901366615275094</v>
+      </c>
+      <c r="I34" s="5">
+        <f>I33/0.245251694993963</f>
+        <v>362.72386447855041</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3">
+        <f>K32/96</f>
+        <v>91.330729166666671</v>
+      </c>
+      <c r="L34" s="3">
+        <f>L32/74</f>
+        <v>136.97297297297297</v>
+      </c>
+      <c r="M34">
+        <f>M32/56</f>
+        <v>206.16071428571428</v>
+      </c>
+      <c r="N34">
+        <f>N32*0.01573</f>
+        <v>257.7163875</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f>SUM(A34:H34)</f>
+        <v>7047.8521269492276</v>
+      </c>
+      <c r="M35" s="5">
+        <f>SUM(K34:M34)</f>
+        <v>434.46441642535393</v>
+      </c>
+      <c r="N35" s="5">
+        <f>N34*1.464</f>
+        <v>377.2967913</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <f>L32*0.01573</f>
+        <v>159.43928</v>
+      </c>
+      <c r="N38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="5">
+        <f>L38*1.464</f>
+        <v>233.41910591999999</v>
+      </c>
+      <c r="N39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C5DEE-001E-4631-A0AD-FB9FE3889004}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Testing/irradiance.xlsx
+++ b/Testing/irradiance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. University\5th Year\EEE4022S\PAR-Measurement\Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\1. UNIVERSITY\University\EEE4022S\PAR-Measurement\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7D3D9B-9B5D-493E-B56B-532293BB844F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7BDF95-78C7-4E75-BBBF-86A6F4FCE848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{D34289F2-A526-4A09-83F9-2880FCCCB586}"/>
+    <workbookView minimized="1" xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D34289F2-A526-4A09-83F9-2880FCCCB586}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>WHITE</t>
   </si>
@@ -103,13 +103,10 @@
     <t>180-200</t>
   </si>
   <si>
-    <t>8.44-9.08</t>
+    <t>lux (min)</t>
   </si>
   <si>
-    <t>14.28-15.58</t>
-  </si>
-  <si>
-    <t>3.89-4.33</t>
+    <t>lux (max)</t>
   </si>
 </sst>
 </file>
@@ -169,11 +166,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -496,9 +492,9 @@
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>245</v>
       </c>
@@ -551,7 +547,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1/32</f>
         <v>7.65625</v>
@@ -601,7 +597,7 @@
         <v>108.26785714285714</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2/A25</f>
         <v>17.173925781249999</v>
@@ -653,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H4">
         <f>SUM(A3:H3)</f>
         <v>328.78200910705232</v>
@@ -666,7 +662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>111</v>
       </c>
@@ -719,7 +715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7/32</f>
         <v>3.46875</v>
@@ -769,7 +765,7 @@
         <v>81.196428571428569</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>A8/A25</f>
         <v>7.7808398437499999</v>
@@ -821,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H10">
         <f>SUM(A9:H9)</f>
         <v>222.5080794575222</v>
@@ -834,12 +830,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="I11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -876,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>68</v>
       </c>
@@ -929,7 +925,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>A13/32</f>
         <v>2.125</v>
@@ -979,7 +975,7 @@
         <v>23.303571428571427</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>A14/A25</f>
         <v>4.766640625</v>
@@ -1031,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H16">
         <f>SUM(A15:H15)</f>
         <v>80.751134230719032</v>
@@ -1044,7 +1040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>165</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>A18/32</f>
         <v>5.15625</v>
@@ -1147,7 +1143,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>A19/A25</f>
         <v>11.566113281250001</v>
@@ -1199,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H21">
         <f>SUM(A20:H20)</f>
         <v>192.45848655437831</v>
@@ -1212,7 +1208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>48/107.67</f>
         <v>0.44580663137364168</v>
@@ -1250,7 +1246,7 @@
         <v>15.696108479613635</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>387</v>
       </c>
@@ -1297,7 +1293,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>A27/32</f>
         <v>12.09375</v>
@@ -1347,7 +1343,7 @@
         <v>185.26785714285714</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>A28/A25</f>
         <v>27.127792968750001</v>
@@ -1399,7 +1395,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H30">
         <f>SUM(A29:H29)</f>
         <v>542.93741779736115</v>
@@ -1412,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>69</v>
       </c>
@@ -1465,7 +1461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>A32/32</f>
         <v>2.15625</v>
@@ -1515,7 +1511,7 @@
         <v>6.5892857142857144</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" ref="A34:I34" si="47">A33/A25</f>
         <v>4.8367382812499997</v>
@@ -1575,7 +1571,7 @@
         <v>232.50398166023166</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="H35">
         <f>SUM(A34:H34)</f>
         <v>32.171193631389237</v>
@@ -1595,15 +1591,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3892725B-05D6-4123-A6B9-5420049D0B85}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>658</v>
       </c>
@@ -1628,7 +1624,7 @@
       <c r="H1" s="2">
         <v>916</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>33408</v>
       </c>
       <c r="J1" s="2">
@@ -1653,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>A1/640*27.8</f>
         <v>28.581875</v>
@@ -1686,7 +1682,7 @@
         <f t="shared" si="0"/>
         <v>39.78875</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f>I1/640*27.8</f>
         <v>1451.16</v>
       </c>
@@ -1694,19 +1690,19 @@
         <f t="shared" ref="J2" si="1">J1/640*27.8</f>
         <v>38.789687499999999</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <f>K1/640*160</f>
         <v>2487.75</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <f t="shared" ref="L2:N2" si="2">L1/640*160</f>
         <v>7863.25</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2">
         <f t="shared" si="2"/>
         <v>3068</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2">
         <f t="shared" si="2"/>
         <v>7215.25</v>
       </c>
@@ -1714,7 +1710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f>A2/32</f>
         <v>0.89318359375</v>
@@ -1747,7 +1743,7 @@
         <f t="shared" si="3"/>
         <v>1.2433984375</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <f t="shared" si="3"/>
         <v>45.348750000000003</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>A3/0.00696572861521315</f>
         <v>128.22543671875002</v>
@@ -1792,16 +1788,16 @@
         <f>H3/0.152955790842389</f>
         <v>8.1291360768500827</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f>I3/0.245251694993963</f>
         <v>184.90697893491128</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="3">
+      <c r="K4">
         <f>K2/96</f>
         <v>25.9140625</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <f>L2/74</f>
         <v>106.26013513513513</v>
       </c>
@@ -1820,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H5">
         <f>SUM(A4:H4)</f>
         <v>2135.4761651027288</v>
@@ -1829,16 +1825,16 @@
         <f>I4*10^(-6)</f>
         <v>1.8490697893491128E-4</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>SUM(K4:M4)</f>
         <v>186.95991192084941</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>N4*1.464</f>
         <v>166.15797198000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L8">
         <f>L2*0.01573</f>
         <v>123.6889225</v>
@@ -1847,8 +1843,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="5">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
         <f>L8*1.464</f>
         <v>181.08058253999999</v>
       </c>
@@ -1856,7 +1852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1090</v>
       </c>
@@ -1906,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>A11/640*27.8</f>
         <v>47.346875000000004</v>
@@ -1939,7 +1935,7 @@
         <f t="shared" ref="H12" si="10">H11/640*27.8</f>
         <v>110.33125</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <f>I11/640*27.8</f>
         <v>1996.7784374999999</v>
       </c>
@@ -1947,19 +1943,19 @@
         <f t="shared" ref="J12" si="11">J11/640*27.8</f>
         <v>16.810312500000002</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <f>K11/640*160</f>
         <v>1717.25</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <f t="shared" ref="L12" si="12">L11/640*160</f>
         <v>2611.25</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <f t="shared" ref="M12" si="13">M11/640*160</f>
         <v>10651.25</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <f t="shared" ref="N12" si="14">N11/640*160</f>
         <v>7990</v>
       </c>
@@ -1967,7 +1963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>A12/32</f>
         <v>1.4795898437500001</v>
@@ -2000,7 +1996,7 @@
         <f t="shared" ref="H13" si="21">H12/32</f>
         <v>3.4478515624999999</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <f t="shared" ref="I13" si="22">I12/32</f>
         <v>62.399326171874996</v>
       </c>
@@ -2012,7 +2008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>A13/0.00696572861521315</f>
         <v>212.40991796875005</v>
@@ -2045,16 +2041,16 @@
         <f>H13/0.152955790842389</f>
         <v>22.541490868121411</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f>I13/0.245251694993963</f>
         <v>254.42974481139058</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="K14" s="3">
+      <c r="K14">
         <f>K12/96</f>
         <v>17.888020833333332</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <f>L12/74</f>
         <v>35.287162162162161</v>
       </c>
@@ -2070,21 +2066,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H15">
         <f>SUM(A14:H14)</f>
         <v>5887.8336407785982</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f>SUM(K14:M14)</f>
         <v>243.37607585263834</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <f>N14*1.464</f>
         <v>183.99947280000001</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L18">
         <f>L12*0.01573</f>
         <v>41.074962500000005</v>
@@ -2093,8 +2089,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="5">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L19" s="4">
         <f>L18*1.464</f>
         <v>60.133745100000006</v>
       </c>
@@ -2102,7 +2098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>641</v>
       </c>
@@ -2121,9 +2117,6 @@
       <c r="F21">
         <v>17286</v>
       </c>
-      <c r="G21">
-        <v>55490</v>
-      </c>
       <c r="H21">
         <v>823</v>
       </c>
@@ -2149,7 +2142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>A21/640*27.8</f>
         <v>27.843437499999997</v>
@@ -2176,13 +2169,13 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ref="G22" si="29">G21/640*27.8</f>
-        <v>2410.3468750000002</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22" si="30">H21/640*27.8</f>
         <v>35.749062500000001</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <f>I21/640*27.8</f>
         <v>1400.5118749999999</v>
       </c>
@@ -2190,19 +2183,19 @@
         <f t="shared" ref="J22" si="31">J21/640*27.8</f>
         <v>171.3175</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <f>K21/640*160</f>
         <v>7048.75</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <f t="shared" ref="L22" si="32">L21/640*160</f>
         <v>2146.25</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22">
         <f t="shared" ref="M22" si="33">M21/640*160</f>
         <v>870.25</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22">
         <f t="shared" ref="N22" si="34">N21/640*160</f>
         <v>6751.25</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>A22/32</f>
         <v>0.8701074218749999</v>
@@ -2237,13 +2230,13 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ref="G23" si="40">G22/32</f>
-        <v>75.323339843750006</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ref="H23" si="41">H22/32</f>
         <v>1.117158203125</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <f t="shared" ref="I23" si="42">I22/32</f>
         <v>43.765996093749997</v>
       </c>
@@ -2255,7 +2248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>A23/0.00696572861521315</f>
         <v>124.91262148437499</v>
@@ -2282,22 +2275,22 @@
       </c>
       <c r="G24" s="2">
         <f>G23/0.187203956533853</f>
-        <v>402.35976438953588</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
         <f>H23/0.152955790842389</f>
         <v>7.3037980253794963</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <f>I23/0.245251694993963</f>
         <v>178.45338885355031</v>
       </c>
       <c r="J24" s="2"/>
-      <c r="K24" s="3">
+      <c r="K24">
         <f>K22/96</f>
         <v>73.424479166666671</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <f>L22/74</f>
         <v>29.003378378378379</v>
       </c>
@@ -2313,21 +2306,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H25">
         <f>SUM(A24:H24)</f>
-        <v>836.7867668271266</v>
-      </c>
-      <c r="M25" s="5">
+        <v>434.42700243759077</v>
+      </c>
+      <c r="M25" s="4">
         <f>SUM(K24:M24)</f>
         <v>117.96803611647361</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <f>N24*1.464</f>
         <v>155.4726459</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L28">
         <f>L22*0.01573</f>
         <v>33.760512500000004</v>
@@ -2336,8 +2329,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L29" s="5">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L29" s="4">
         <f>L28*1.464</f>
         <v>49.425390300000004</v>
       </c>
@@ -2345,7 +2338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1898</v>
       </c>
@@ -2395,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f>A31/640*27.8</f>
         <v>82.444375000000008</v>
@@ -2428,7 +2421,7 @@
         <f t="shared" ref="H32" si="50">H31/640*27.8</f>
         <v>151.24937499999999</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="3">
         <f>I31/640*27.8</f>
         <v>2846.6765625000003</v>
       </c>
@@ -2436,19 +2429,19 @@
         <f t="shared" ref="J32" si="51">J31/640*27.8</f>
         <v>185.3478125</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <f>K31/640*160</f>
         <v>8767.75</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <f t="shared" ref="L32" si="52">L31/640*160</f>
         <v>10136</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32">
         <f t="shared" ref="M32" si="53">M31/640*160</f>
         <v>11545</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32">
         <f t="shared" ref="N32" si="54">N31/640*160</f>
         <v>16383.75</v>
       </c>
@@ -2456,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f>A32/32</f>
         <v>2.5763867187500002</v>
@@ -2489,7 +2482,7 @@
         <f t="shared" ref="H33" si="61">H32/32</f>
         <v>4.7265429687499996</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <f t="shared" ref="I33" si="62">I32/32</f>
         <v>88.958642578125009</v>
       </c>
@@ -2501,7 +2494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f>A33/0.00696572861521315</f>
         <v>369.86607734375008</v>
@@ -2534,16 +2527,16 @@
         <f>H33/0.152955790842389</f>
         <v>30.901366615275094</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f>I33/0.245251694993963</f>
         <v>362.72386447855041</v>
       </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="3">
+      <c r="K34">
         <f>K32/96</f>
         <v>91.330729166666671</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <f>L32/74</f>
         <v>136.97297297297297</v>
       </c>
@@ -2559,21 +2552,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H35">
         <f>SUM(A34:H34)</f>
         <v>7047.8521269492276</v>
       </c>
-      <c r="M35" s="5">
+      <c r="M35" s="4">
         <f>SUM(K34:M34)</f>
         <v>434.46441642535393</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="4">
         <f>N34*1.464</f>
         <v>377.2967913</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L38">
         <f>L32*0.01573</f>
         <v>159.43928</v>
@@ -2582,12 +2575,246 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L39" s="5">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L39" s="4">
         <f>L38*1.464</f>
         <v>233.41910591999999</v>
       </c>
       <c r="N39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>44</v>
+      </c>
+      <c r="B43">
+        <v>709</v>
+      </c>
+      <c r="C43">
+        <v>699</v>
+      </c>
+      <c r="D43">
+        <v>779</v>
+      </c>
+      <c r="E43">
+        <v>140</v>
+      </c>
+      <c r="F43">
+        <v>355</v>
+      </c>
+      <c r="G43">
+        <v>965</v>
+      </c>
+      <c r="H43">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>2072</v>
+      </c>
+      <c r="J43">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>750</v>
+      </c>
+      <c r="L43">
+        <v>806</v>
+      </c>
+      <c r="M43">
+        <v>981</v>
+      </c>
+      <c r="N43">
+        <v>1516</v>
+      </c>
+      <c r="O43">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <f>A43/320*27.8</f>
+        <v>3.8225000000000002</v>
+      </c>
+      <c r="B44" s="2">
+        <f t="shared" ref="B44:J44" si="64">B43/320*27.8</f>
+        <v>61.594375000000007</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="64"/>
+        <v>60.725625000000008</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="64"/>
+        <v>67.675625000000011</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="64"/>
+        <v>12.1625</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="64"/>
+        <v>30.840624999999999</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="64"/>
+        <v>83.834375000000009</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="64"/>
+        <v>6.515625</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="64"/>
+        <v>180.005</v>
+      </c>
+      <c r="J44" s="2">
+        <f t="shared" si="64"/>
+        <v>6.0812499999999998</v>
+      </c>
+      <c r="K44">
+        <f>K43/320*160</f>
+        <v>375</v>
+      </c>
+      <c r="L44">
+        <f t="shared" ref="L44:N44" si="65">L43/320*160</f>
+        <v>403</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="65"/>
+        <v>490.5</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="65"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <f>A44/32</f>
+        <v>0.11945312500000001</v>
+      </c>
+      <c r="B45" s="2">
+        <f t="shared" ref="B45:J45" si="66">B44/32</f>
+        <v>1.9248242187500002</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="66"/>
+        <v>1.8976757812500002</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="66"/>
+        <v>2.1148632812500003</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="66"/>
+        <v>0.38007812499999999</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="66"/>
+        <v>0.96376953124999998</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="66"/>
+        <v>2.6198242187500003</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="66"/>
+        <v>0.20361328125</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="66"/>
+        <v>5.6251562499999999</v>
+      </c>
+      <c r="J45" s="2">
+        <f t="shared" si="66"/>
+        <v>0.19003906249999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <f>A45/0.00696572861521315</f>
+        <v>17.148690625000004</v>
+      </c>
+      <c r="B46" s="2">
+        <f>B45/0.0133509798458252</f>
+        <v>144.17100774456529</v>
+      </c>
+      <c r="C46" s="2">
+        <f>C45/0.0261214823070493</f>
+        <v>72.648089375000055</v>
+      </c>
+      <c r="D46" s="2">
+        <f>D45/0.0500661744218445</f>
+        <v>42.241359673913067</v>
+      </c>
+      <c r="E46" s="2">
+        <f>E45/0.0812668338441534</f>
+        <v>4.6769156250000021</v>
+      </c>
+      <c r="F46" s="2">
+        <f>F45/0.119723460573976</f>
+        <v>8.049963863636366</v>
+      </c>
+      <c r="G46" s="2">
+        <f>G45/0.187203956533853</f>
+        <v>13.994491715116315</v>
+      </c>
+      <c r="H46" s="2">
+        <f>H45/0.152955790842389</f>
+        <v>1.3311904055977211</v>
+      </c>
+      <c r="I46" s="4">
+        <f>I45/0.245251694993963</f>
+        <v>22.936258402366867</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="K46">
+        <f>K44/96</f>
+        <v>3.90625</v>
+      </c>
+      <c r="L46">
+        <f>L44/74</f>
+        <v>5.4459459459459456</v>
+      </c>
+      <c r="M46">
+        <f>M44/56</f>
+        <v>8.7589285714285712</v>
+      </c>
+      <c r="N46">
+        <f>N44*0.01573</f>
+        <v>11.923340000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H47">
+        <f>SUM(A46:H46)</f>
+        <v>304.26170902782883</v>
+      </c>
+      <c r="M47" s="4">
+        <f>SUM(K46:M46)</f>
+        <v>18.111124517374517</v>
+      </c>
+      <c r="N47" s="4">
+        <f>N46*1.464</f>
+        <v>17.455769760000003</v>
+      </c>
+    </row>
+    <row r="50" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>L44*0.01573</f>
+        <v>6.3391900000000003</v>
+      </c>
+      <c r="N50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="12:14" x14ac:dyDescent="0.3">
+      <c r="L51" s="4">
+        <f>L50*1.464</f>
+        <v>9.2805741600000005</v>
+      </c>
+      <c r="N51" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2598,15 +2825,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680C5DEE-001E-4631-A0AD-FB9FE3889004}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -2617,10 +2848,13 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2630,11 +2864,18 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>8.44</v>
+      </c>
+      <c r="E2">
+        <v>9.08</v>
+      </c>
+      <c r="F2">
+        <f>E2*9*3</f>
+        <v>245.16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2644,11 +2885,18 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>14.28</v>
+      </c>
+      <c r="E3">
+        <v>15.58</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">E3*9*3</f>
+        <v>420.65999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2658,8 +2906,25 @@
       <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
+      <c r="D4">
+        <v>3.89</v>
+      </c>
+      <c r="E4">
+        <v>4.33</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>116.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>SUM(D2:D4)</f>
+        <v>26.61</v>
+      </c>
+      <c r="E5">
+        <f>SUM(E2:E4)</f>
+        <v>28.990000000000002</v>
       </c>
     </row>
   </sheetData>
